--- a/yield_prediction/results/graph_descriptors/WLsigmoidhyperbolictangent_4/out_of_sample/additive/ranking_test2/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLsigmoidhyperbolictangent_4/out_of_sample/additive/ranking_test2/results.xlsx
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.111</v>
+        <v>0.606</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>27.797</v>
+        <v>15.903</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.022</v>
+        <v>0.677</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>28.408</v>
+        <v>15.97</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.019</v>
+        <v>0.959</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>27.304</v>
+        <v>5.485</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>29.23691451844375</v>
+        <v>10.94661673074775</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>29.23691455366442</v>
+        <v>7.692668171143442</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>29.23691456642079</v>
+        <v>13.50666817677288</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>29.23691451840691</v>
+        <v>1.498927131812142</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>29.2369145564888</v>
+        <v>10.76576663578615</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>29.2369145692784</v>
+        <v>8.948173159585462</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>29.23691452331527</v>
+        <v>6.43696169111519</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>29.23691456185581</v>
+        <v>20.63584508964147</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>29.23691457431433</v>
+        <v>21.2391864054892</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>29.23691457461651</v>
+        <v>5.65895985397221</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>29.23691459025286</v>
+        <v>11.14060050125125</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>29.23691459471775</v>
+        <v>12.80903585106546</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>29.23691454533061</v>
+        <v>13.87409162790317</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>29.23691458275042</v>
+        <v>1.861735682095965</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>29.23691459474347</v>
+        <v>11.73026959617192</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>29.23691457608642</v>
+        <v>13.13021137367918</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>29.23691461631158</v>
+        <v>18.39830819444829</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>29.23691463120019</v>
+        <v>21.42714767397343</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>29.23691457478489</v>
+        <v>5.835028423493011</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>29.2369146169451</v>
+        <v>8.816387448451348</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>29.23691463273326</v>
+        <v>11.60291096709249</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>29.23691458438869</v>
+        <v>0.3851988283608101</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>29.2369146278994</v>
+        <v>12.8090436164469</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>29.23691453613423</v>
+        <v>14.96835726678988</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>29.23691457338288</v>
+        <v>18.62800586281852</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>29.23691458606931</v>
+        <v>19.41128491639683</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>29.23691453818563</v>
+        <v>1.167722102537343</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>29.23691457858733</v>
+        <v>24.91931468161874</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>29.23691459137844</v>
+        <v>24.15773470883959</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>29.23691454409392</v>
+        <v>4.7037370695361</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>29.23691458483168</v>
+        <v>34.81892895009574</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>29.23691459721006</v>
+        <v>31.5236959470522</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>29.23691459749788</v>
+        <v>32.1011587503216</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>29.23691461341105</v>
+        <v>39.14889865301275</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>29.23691461791751</v>
+        <v>40.60928093306035</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>29.23691456587462</v>
+        <v>19.27167409296062</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>29.23691460551173</v>
+        <v>27.32201833332031</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>29.23691461721626</v>
+        <v>31.83711659246064</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>29.23691459856029</v>
+        <v>15.65640226448576</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>29.23691464111055</v>
+        <v>25.31565887330242</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>29.23691465597722</v>
+        <v>28.96294744949033</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>29.23691459959561</v>
+        <v>5.890724925690048</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>29.23691464438849</v>
+        <v>20.6153190210678</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>29.23691466027971</v>
+        <v>29.81043947719403</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>29.23691465652396</v>
+        <v>34.17064420333702</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>29.23691454046527</v>
+        <v>10.87967649853764</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>29.23691457763894</v>
+        <v>16.49995102261966</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>29.23691459022163</v>
+        <v>18.49731244993354</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>29.23691454312912</v>
+        <v>0.8717577996565318</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>29.23691458346507</v>
+        <v>24.67581580824351</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>29.23691459618806</v>
+        <v>27.57994917994783</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>29.23691454910314</v>
+        <v>5.872739141816385</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>29.23691458975417</v>
+        <v>36.86342543394666</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>29.23691460203089</v>
+        <v>36.49229514167594</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>29.236914602196</v>
+        <v>36.32886088905806</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>29.23691461795878</v>
+        <v>39.83957434615593</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>29.23691462244532</v>
+        <v>44.75296316714295</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>29.2369145704448</v>
+        <v>10.44085395530204</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>29.23691461010658</v>
+        <v>20.72031249008638</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>29.23691462166249</v>
+        <v>27.4366593282795</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>29.23691460289749</v>
+        <v>11.36666458494321</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>29.23691464534813</v>
+        <v>20.38762429113462</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>29.23691466011375</v>
+        <v>27.780452702191</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>29.23691460457493</v>
+        <v>3.840534429385695</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>29.23691464928303</v>
+        <v>16.64245597942636</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>29.23691466511927</v>
+        <v>31.88706041778344</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>29.23691461552821</v>
+        <v>2.551314532930316</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>29.23691466145672</v>
+        <v>31.74594236843951</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>29.23691452826879</v>
+        <v>3.450454655374788</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>29.23691456431511</v>
+        <v>12.26568551821989</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>29.23691457717839</v>
+        <v>17.06169605514122</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>29.23691453005237</v>
+        <v>0.3839972991701366</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>29.23691456907329</v>
+        <v>23.5335955094017</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>29.23691458210168</v>
+        <v>27.64828670501569</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>29.23691453534141</v>
+        <v>1.716634822791686</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>29.23691457477788</v>
+        <v>32.99352637232573</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>29.23691458734686</v>
+        <v>35.58142390953074</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>29.23691458722785</v>
+        <v>26.58011625909094</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>29.23691460293183</v>
+        <v>30.09054671123971</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>29.23691460748377</v>
+        <v>34.53281459186354</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>29.23691455674963</v>
+        <v>7.663373203909625</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>29.23691459538084</v>
+        <v>13.59451820336193</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>29.23691460733137</v>
+        <v>25.50988227250428</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>29.23691458766248</v>
+        <v>7.3206676189407</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>29.23691462879824</v>
+        <v>21.46113665671657</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>29.23691464389033</v>
+        <v>28.19221161178796</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>29.23691458827088</v>
+        <v>4.349580297510666</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>29.23691463144953</v>
+        <v>18.08229615821071</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>29.23691464762699</v>
+        <v>31.13466610286254</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>29.23691459835951</v>
+        <v>0.4361859251728752</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>29.23691464286962</v>
+        <v>28.5731607901807</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>29.23691464276569</v>
+        <v>16.57988014282763</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>29.23691463905147</v>
+        <v>11.88592280110019</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>29.23691465891049</v>
+        <v>29.64256752714105</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>29.23691466405242</v>
+        <v>32.12286131244581</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>29.23691460519988</v>
+        <v>5.921793572842613</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>29.23691464931368</v>
+        <v>11.82437765023047</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>29.23691466298359</v>
+        <v>14.46388453664403</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>29.23691461179921</v>
+        <v>17.45853627808154</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>29.23691465250644</v>
+        <v>18.04964268871801</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>29.23691466710512</v>
+        <v>26.38276734710592</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>29.23691461267712</v>
+        <v>4.046892206810082</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>29.23691465552328</v>
+        <v>6.388087593708473</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>29.23691467093163</v>
+        <v>9.197716122040145</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>29.23691462353344</v>
+        <v>1.010496012947396</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>29.23691466754644</v>
+        <v>15.65339807355103</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>29.23691468208182</v>
+        <v>29.03158546700031</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>29.23691467743707</v>
+        <v>18.18272790178186</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>29.23691469661593</v>
+        <v>34.64864663064246</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>29.23691470123554</v>
+        <v>39.52307034603295</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>29.23691464208785</v>
+        <v>6.915137740106314</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>29.23691468593523</v>
+        <v>11.43975486273994</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>29.23691469956985</v>
+        <v>22.06725223663936</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>29.23691467137218</v>
+        <v>43.05334207568573</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>29.23691466699843</v>
+        <v>37.72121739678522</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>29.23691468707442</v>
+        <v>48.43198189765644</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>29.23691469225686</v>
+        <v>54.29762926507108</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>29.23691463074241</v>
+        <v>19.10903999168913</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>29.23691467739529</v>
+        <v>45.97196250630311</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>29.23691469078296</v>
+        <v>47.93387597400226</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>29.23691463566324</v>
+        <v>23.95372559884678</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>29.23691467874393</v>
+        <v>34.90761458683349</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>29.23691469325476</v>
+        <v>39.35939380281262</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>29.23691463894932</v>
+        <v>9.911731501561771</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>29.23691468449191</v>
+        <v>32.30318046810392</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>29.23691469993197</v>
+        <v>37.57047865119448</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>29.23691465112106</v>
+        <v>9.632282501015336</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>29.23691469771163</v>
+        <v>50.97768595812217</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>29.2369147121538</v>
+        <v>59.71952371725838</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>29.23691470677313</v>
+        <v>65.26833873039475</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>29.23691472618301</v>
+        <v>71.76225282093596</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>29.23691473080981</v>
+        <v>76.36170264375052</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>29.23691466907145</v>
+        <v>33.24523825001326</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>29.23691471542818</v>
+        <v>64.02205395534229</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>29.23691472873833</v>
+        <v>69.5266288751868</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>29.23691467620554</v>
+        <v>48.09355987553337</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>29.23691467160141</v>
+        <v>32.16378988587232</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>29.23691469145378</v>
+        <v>38.15777800897285</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>29.23691469662069</v>
+        <v>51.69718782079796</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>29.23691463530322</v>
+        <v>12.79445695793207</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>29.23691468193876</v>
+        <v>40.99025119936864</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>29.23691469517102</v>
+        <v>48.00311532039854</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>29.23691463996271</v>
+        <v>17.94869764917054</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>29.23691468297148</v>
+        <v>30.73258837143659</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>29.23691469736373</v>
+        <v>38.50373519604456</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>29.23691464389932</v>
+        <v>6.978214688594814</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>29.23691468938743</v>
+        <v>30.14657777520661</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>29.23691470475102</v>
+        <v>41.28624304120108</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>29.23691465611905</v>
+        <v>7.342343251015574</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>29.23691470263085</v>
+        <v>50.07526125798462</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>29.23691471695363</v>
+        <v>64.62057647743147</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>29.2369147113561</v>
+        <v>62.70668423713339</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>29.23691473055725</v>
+        <v>67.28664525694926</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>29.23691473515929</v>
+        <v>77.88131030162073</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>29.23691467358947</v>
+        <v>23.49803696890994</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>29.23691471995022</v>
+        <v>58.78079972186485</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>29.23691473309388</v>
+        <v>70.33969343512935</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>29.23691465794455</v>
+        <v>43.52187253380268</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>29.23691465332402</v>
+        <v>19.77448498379412</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>29.23691467315444</v>
+        <v>27.12738232472118</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>29.23691467841447</v>
+        <v>38.91863901108815</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>29.2369146184111</v>
+        <v>10.39841974061595</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>29.23691466383028</v>
+        <v>37.19043014578598</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>29.2369146775091</v>
+        <v>44.03468979070048</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>29.23691462473405</v>
+        <v>15.38501609037207</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>29.23691466644944</v>
+        <v>33.11240569969017</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>29.236914681195</v>
+        <v>43.23633542997645</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>29.23691462758252</v>
+        <v>9.371366079488592</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>29.23691467155393</v>
+        <v>31.22780202040014</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>29.23691468728584</v>
+        <v>44.00681842581857</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>29.23691463897327</v>
+        <v>4.800128555001873</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>29.23691468408442</v>
+        <v>45.02867181868812</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>29.23691469876176</v>
+        <v>63.95718414758106</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>29.23691469321773</v>
+        <v>50.60939244835284</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>29.23691471238626</v>
+        <v>59.2524180469084</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>29.23691471708512</v>
+        <v>75.34761084318619</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>29.23691465666389</v>
+        <v>17.70701580378242</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>29.23691470187094</v>
+        <v>52.90605417498325</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>29.23691471548537</v>
+        <v>69.63012748224513</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>29.23691454487318</v>
+        <v>8.139219942783281</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>29.23691457708017</v>
+        <v>20.8535296284954</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>29.2369145883032</v>
+        <v>31.20321182672759</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>29.23691454572133</v>
+        <v>6.070400611374335</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>29.23691458068788</v>
+        <v>30.99139800839799</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>29.23691459190845</v>
+        <v>32.37112716833485</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>29.23691455098808</v>
+        <v>10.50373251413866</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>29.23691458619568</v>
+        <v>51.17989389530162</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>29.23691459710391</v>
+        <v>54.91061826493052</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>29.23691459634024</v>
+        <v>29.46542649265376</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>29.23691461016831</v>
+        <v>35.90771680729736</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>29.23691461404146</v>
+        <v>36.8973134950792</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>29.23691456911473</v>
+        <v>19.18602687280611</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>29.23691460342763</v>
+        <v>18.74138112635209</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>29.23691461409476</v>
+        <v>36.49733576934142</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>29.23691459248631</v>
+        <v>14.81961607659342</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>29.23691462915724</v>
+        <v>31.4094386632527</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>29.23691464203515</v>
+        <v>29.25207306515805</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>29.23691459154696</v>
+        <v>5.559153703686132</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>29.23691463014914</v>
+        <v>23.51525436806372</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>29.23691464381956</v>
+        <v>20.66253279997707</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>29.2369146011271</v>
+        <v>4.304564059990565</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>29.23691464076004</v>
+        <v>37.20853508964429</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>29.23691456029967</v>
+        <v>14.23022806900243</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>29.23691459432092</v>
+        <v>33.16913459666264</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>29.23691460546117</v>
+        <v>36.50725460250663</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>29.23691456302</v>
+        <v>7.232705361667019</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>29.23691460008631</v>
+        <v>45.50763420677606</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>29.23691461127428</v>
+        <v>44.41767124745768</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>29.2369145691057</v>
+        <v>9.928591748178842</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>29.23691460627694</v>
+        <v>64.35691549038516</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>29.23691461709096</v>
+        <v>61.53530969202544</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>29.236914616277</v>
+        <v>55.93454177653167</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>29.23691463034623</v>
+        <v>61.77991122990579</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>29.2369146342521</v>
+        <v>60.20552623597284</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>29.23691458698479</v>
+        <v>21.81902502270007</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>29.23691462329818</v>
+        <v>41.04216218793042</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>29.23691463368199</v>
+        <v>49.11378872654846</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>29.23691461204647</v>
+        <v>22.62120709127072</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>29.23691465080008</v>
+        <v>43.12005554165931</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>29.23691466362721</v>
+        <v>39.14733966771492</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>29.23691461319418</v>
+        <v>8.685887590814669</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>29.23691465418382</v>
+        <v>38.52981243040004</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>29.2369146678982</v>
+        <v>36.89946871556754</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>29.23691462383587</v>
+        <v>9.745910827841907</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>29.23691466572604</v>
+        <v>58.73655570194502</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>29.23691456383184</v>
+        <v>6.267459896218693</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>29.23691459776878</v>
+        <v>26.5229849039842</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>29.23691460881442</v>
+        <v>30.62645026118136</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>29.23691456708711</v>
+        <v>3.678588124926033</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>29.23691460407906</v>
+        <v>41.56024811914659</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>29.23691461520233</v>
+        <v>43.27848773325942</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>29.23691457320169</v>
+        <v>6.81747083085391</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>29.23691461027741</v>
+        <v>61.26355684113987</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>29.23691462099824</v>
+        <v>60.63412247845129</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>29.23691462010489</v>
+        <v>58.61978380377531</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>29.23691463403726</v>
+        <v>62.01836778246657</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>29.23691463792422</v>
+        <v>62.55096575062061</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>29.23691459071111</v>
+        <v>9.081094977937664</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>29.2369146270333</v>
+        <v>31.12910131267288</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>29.23691463727835</v>
+        <v>39.7190140290879</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>29.23691461561979</v>
+        <v>16.87174967946596</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>29.23691465426767</v>
+        <v>36.56618607286933</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>29.2369146670059</v>
+        <v>35.89381155334385</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>29.23691461733679</v>
+        <v>5.578810194035004</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>29.23691465823618</v>
+        <v>33.62194575954243</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>29.2369146719006</v>
+        <v>36.82329655602415</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>29.23691462799674</v>
+        <v>7.283189072229757</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>29.23691466977517</v>
+        <v>54.00126205379749</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>29.23691455319238</v>
+        <v>0.5189941964594915</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>29.23691458611055</v>
+        <v>23.09215009050437</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>29.23691459741399</v>
+        <v>31.26234400148404</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>29.236914555661</v>
+        <v>6.31885492869581</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>29.23691459145104</v>
+        <v>42.70242739014927</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>29.23691460286357</v>
+        <v>47.80187140467622</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>29.23691456120889</v>
+        <v>6.534865323689157</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>29.23691459718968</v>
+        <v>60.68139775066562</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>29.2369146081776</v>
+        <v>64.34854337606517</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>29.23691460710346</v>
+        <v>54.25104048292073</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>29.23691462097375</v>
+        <v>59.7157473831343</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>29.23691462491269</v>
+        <v>60.89854868373942</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>29.23691457881513</v>
+        <v>9.750485758832351</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>29.23691461419026</v>
+        <v>28.99873968878425</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>29.23691462479511</v>
+        <v>44.1749817300105</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>29.23691460233279</v>
+        <v>10.2202149432893</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>29.23691463979043</v>
+        <v>34.01700151265167</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>29.23691465283553</v>
+        <v>34.09089781103839</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>29.23691460309757</v>
+        <v>4.603511087883657</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>29.23691464259494</v>
+        <v>32.20066536237898</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>29.23691465659197</v>
+        <v>36.01768952381397</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>29.23691461304404</v>
+        <v>4.039914442885486</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>29.23691465354193</v>
+        <v>49.06386485053191</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>29.23691465358261</v>
+        <v>35.62057888502117</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>29.2369146495962</v>
+        <v>31.2029402625091</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>29.23691466703152</v>
+        <v>46.77622208303504</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>29.23691467141992</v>
+        <v>44.85801534372851</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>29.23691461828274</v>
+        <v>21.12820100717583</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>29.23691465845835</v>
+        <v>32.50733035499431</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>29.2369146705128</v>
+        <v>34.38248501925476</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>29.23691462255641</v>
+        <v>19.01787916250762</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>29.23691465955138</v>
+        <v>29.370977198334</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>29.23691467225634</v>
+        <v>37.72212095289954</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>29.23691462353816</v>
+        <v>6.209708643926685</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>29.23691466263579</v>
+        <v>23.0615887593383</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>29.23691467604879</v>
+        <v>24.78742481248149</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>29.23691463416385</v>
+        <v>8.448627453191929</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>29.23691467413129</v>
+        <v>41.12519537869936</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>29.23691468675053</v>
+        <v>54.73340684481785</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>29.23691468205526</v>
+        <v>35.56421165140533</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>29.2369146989038</v>
+        <v>52.26662866877406</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>29.23691470286783</v>
+        <v>56.08921177594594</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>29.23691464948088</v>
+        <v>21.18009276631859</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>29.23691468941227</v>
+        <v>35.90604097275458</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>29.23691470145928</v>
+        <v>46.59493434489788</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>29.23691467849672</v>
+        <v>58.54342616199466</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>29.2369146739079</v>
+        <v>58.28725943292828</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>29.23691469153065</v>
+        <v>66.78264691108204</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>29.23691469594625</v>
+        <v>64.48366713466406</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>29.23691464044739</v>
+        <v>31.74389308656566</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>29.23691468290723</v>
+        <v>62.48657606424482</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>29.23691469467378</v>
+        <v>58.76871330099311</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>29.23691464317955</v>
+        <v>23.80468153071437</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>29.23691464630584</v>
+        <v>9.325405765933507</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>29.23691468783644</v>
+        <v>45.48891226929781</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>29.23691470122911</v>
+        <v>43.73034878546223</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>29.23691465801192</v>
+        <v>12.23096106616419</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>29.23691470027476</v>
+        <v>68.41149815010247</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>29.23691471277713</v>
+        <v>73.24064471471456</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>29.2369147074351</v>
+        <v>73.11955531097648</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>29.23691472448642</v>
+        <v>79.76857463138212</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>29.23691472845003</v>
+        <v>80.96249072532667</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>29.23691467276596</v>
+        <v>37.24772004734531</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>29.23691471495294</v>
+        <v>75.61627687906493</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>29.23691472667214</v>
+        <v>76.21608055675848</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>29.23691468245737</v>
+        <v>60.30161906288548</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>29.23691467769074</v>
+        <v>53.94708922172978</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>29.23691469511454</v>
+        <v>59.13292220589349</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>29.23691469951465</v>
+        <v>62.31739953212004</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>29.2369146442009</v>
+        <v>23.79208208880904</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>29.23691468663317</v>
+        <v>56.92558870476745</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>29.2369146982556</v>
+        <v>56.23792667756565</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>29.23691464670506</v>
+        <v>16.08038394199611</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>29.23691468573558</v>
+        <v>37.57438456046253</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>29.23691469822541</v>
+        <v>40.9340589374404</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>29.236914650405</v>
+        <v>5.006317697671047</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>29.23691469187211</v>
+        <v>42.01091174982044</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>29.23691470519281</v>
+        <v>44.30696505545738</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>29.23691466212055</v>
+        <v>7.825782502569123</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>29.23691470429512</v>
+        <v>64.82558868255619</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>29.23691471668944</v>
+        <v>73.82249435263857</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>29.2369147111833</v>
+        <v>70.92182696587837</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>29.23691472804877</v>
+        <v>76.63234210794904</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>29.23691473198934</v>
+        <v>81.78824164677737</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>29.23691467646753</v>
+        <v>26.34226272793007</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>29.23691471864704</v>
+        <v>70.42387342841413</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>29.23691473020954</v>
+        <v>74.03352935302952</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>29.23691466653114</v>
+        <v>55.86429817562502</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>29.23691466180749</v>
+        <v>40.65798340467748</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>29.23691467920723</v>
+        <v>48.58455073870934</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>29.23691468368439</v>
+        <v>50.79368858763387</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>29.23691462953713</v>
+        <v>20.38084094464721</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>29.23691467085619</v>
+        <v>54.03896589270981</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>29.23691468289109</v>
+        <v>55.25047058181522</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>29.23691463350387</v>
+        <v>14.34305161415153</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>29.23691467136871</v>
+        <v>40.26028427771807</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>29.23691468418669</v>
+        <v>46.76538402605698</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>29.23691463623482</v>
+        <v>8.755913462468452</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>29.23691467631978</v>
+        <v>44.16039629584039</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>29.23691468999345</v>
+        <v>50.19746006614709</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>29.23691464726699</v>
+        <v>8.436619745628743</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>29.23691468818273</v>
+        <v>63.12732890170984</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>29.23691470090657</v>
+        <v>77.19482107594565</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>29.23691469549069</v>
+        <v>63.94065111534049</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>29.23691471231867</v>
+        <v>75.60869844580442</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>29.23691471634127</v>
+        <v>84.28613521552997</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>29.23691466184504</v>
+        <v>24.41068230853348</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>29.23691470297274</v>
+        <v>72.04942831000174</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>29.23691471496555</v>
+        <v>80.94047420999614</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>29.23691453768788</v>
+        <v>11.76437297744981</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>29.23691457203934</v>
+        <v>28.11331736140697</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>29.23691458375015</v>
+        <v>33.75648393042611</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>29.23691453796484</v>
+        <v>-0.6566421318605968</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>29.23691457517089</v>
+        <v>22.0853448010275</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>29.23691458693422</v>
+        <v>23.65018210201306</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>29.2369145436185</v>
+        <v>2.970597889844651</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>29.2369145811095</v>
+        <v>47.63177483738252</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>29.2369145924993</v>
+        <v>47.82258523782804</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>29.23691459194818</v>
+        <v>24.07787704902684</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>29.23691460653986</v>
+        <v>31.9394213773414</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>29.23691461058667</v>
+        <v>29.95540612653935</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>29.23691456272994</v>
+        <v>8.191385205970288</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>29.23691459955103</v>
+        <v>18.07858937455782</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>29.2369146107277</v>
+        <v>22.99922331620011</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>29.23691458490111</v>
+        <v>16.76859039269192</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>29.23691462390338</v>
+        <v>35.1135508592492</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>29.23691463732202</v>
+        <v>33.33813588625824</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>29.236914583178</v>
+        <v>4.466969388090927</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>29.23691462416751</v>
+        <v>21.75147181699226</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>29.23691463848235</v>
+        <v>22.51718891325541</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>29.23691459325621</v>
+        <v>2.769035850652454</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>29.23691463535635</v>
+        <v>38.65363320708437</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>29.23691455387375</v>
+        <v>20.93348718801473</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>29.2369145901675</v>
+        <v>44.51891235807075</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>29.23691460176921</v>
+        <v>42.73389094183433</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>29.23691455612485</v>
+        <v>5.291548989373712</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>29.23691459558098</v>
+        <v>43.00731218586571</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>29.23691460729102</v>
+        <v>41.41727914004449</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>29.23691456261857</v>
+        <v>7.384668397850763</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>29.23691460220847</v>
+        <v>66.86750060224595</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>29.23691461347872</v>
+        <v>60.20819632110211</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>29.23691461284552</v>
+        <v>54.91712749076316</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>29.23691462769175</v>
+        <v>63.07268794640677</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>29.23691463176958</v>
+        <v>58.35234658619666</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>29.23691458145726</v>
+        <v>15.27897592369981</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>29.23691462043006</v>
+        <v>47.06749821535254</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>29.23691463129164</v>
+        <v>43.16552403880564</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>29.2369146053656</v>
+        <v>24.95026939170698</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>29.23691464659515</v>
+        <v>48.42629361603439</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>29.23691465994112</v>
+        <v>45.5804454458262</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>29.23691460584108</v>
+        <v>9.293400021624304</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>29.23691464938543</v>
+        <v>40.35128252172166</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>29.23691466372924</v>
+        <v>42.34029354659489</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>29.23691461701542</v>
+        <v>9.984069946945493</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>29.23691466152609</v>
+        <v>63.45693109153346</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>29.23691455762109</v>
+        <v>12.08951845069057</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>29.23691459382187</v>
+        <v>36.78765439329273</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>29.23691460532314</v>
+        <v>35.63728043225228</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>29.2369145604466</v>
+        <v>1.45354246210972</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>29.23691459982167</v>
+        <v>38.60318196800227</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>29.23691461146335</v>
+        <v>39.77806397688285</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>29.23691456696607</v>
+        <v>4.178871427748415</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>29.23691460645153</v>
+        <v>63.20597745344439</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>29.23691461762265</v>
+        <v>58.73185457392692</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>29.23691461690361</v>
+        <v>56.27149803525616</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>29.23691463160423</v>
+        <v>62.00776869974487</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>29.23691463566097</v>
+        <v>59.87504863200397</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>29.23691458542132</v>
+        <v>2.15271681021893</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>29.23691462439846</v>
+        <v>36.20510041373625</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>29.23691463511119</v>
+        <v>32.15212669090413</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>29.23691460918903</v>
+        <v>18.95086925397333</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>29.23691465030328</v>
+        <v>41.24776564005741</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>29.23691466355617</v>
+        <v>42.09636495379694</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>29.23691461027226</v>
+        <v>6.433985069143997</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>29.23691465371816</v>
+        <v>35.33554373040853</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>29.23691466801108</v>
+        <v>42.44873782139958</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>29.23691462146436</v>
+        <v>7.927859231671942</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>29.23691466585351</v>
+        <v>58.37221823241548</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>29.23691454647327</v>
+        <v>9.14522605937913</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>29.23691458157544</v>
+        <v>36.15548230029647</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>29.23691459336677</v>
+        <v>39.20574652614316</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>29.23691454846995</v>
+        <v>6.654112208356981</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>29.23691458654693</v>
+        <v>41.82724650347193</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>29.23691459851189</v>
+        <v>47.32738743903298</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>29.2369145544122</v>
+        <v>6.448974535918591</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>29.23691459272007</v>
+        <v>65.1236067370741</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>29.23691460418858</v>
+        <v>65.05480746876603</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>29.23691460331152</v>
+        <v>54.20325637795739</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>29.2369146179413</v>
+        <v>62.34039831063983</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>29.23691462205122</v>
+        <v>61.89114562813064</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>29.23691457299171</v>
+        <v>6.833270032352896</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>29.23691461093958</v>
+        <v>37.95366013608412</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>29.23691462203974</v>
+        <v>39.20587112232708</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>29.23691459527306</v>
+        <v>14.42438572860915</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>29.23691463510444</v>
+        <v>39.89510908111635</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>29.23691464869732</v>
+        <v>41.35132318758157</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>29.23691459534894</v>
+        <v>7.816136616444776</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>29.23691463728101</v>
+        <v>35.00774050442605</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>29.2369146519432</v>
+        <v>43.28593992761898</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>29.23691460581146</v>
+        <v>7.194267230101527</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>29.2369146488235</v>
+        <v>54.5938263615546</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>29.23691464872644</v>
+        <v>38.06904612607929</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>29.23691464493328</v>
+        <v>34.64328444895996</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>29.23691466322261</v>
+        <v>51.99150591632173</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>29.23691466780474</v>
+        <v>49.31136195423905</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>29.23691461143304</v>
+        <v>16.81730601420453</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>29.23691465428514</v>
+        <v>32.82112683015119</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>29.23691466696793</v>
+        <v>36.46621356672293</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>29.23691461699832</v>
+        <v>21.44206291030956</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>29.23691465628202</v>
+        <v>36.67730527650555</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>29.23691466957582</v>
+        <v>40.41140012485211</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>29.23691461739879</v>
+        <v>3.259318119885858</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>29.2369146588434</v>
+        <v>22.18771753184926</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>29.23691467294814</v>
+        <v>23.86337118113779</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>29.23691462864599</v>
+        <v>5.135374755635478</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>29.23691467103992</v>
+        <v>43.42080960551765</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>29.23691468425777</v>
+        <v>53.43955104261902</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>29.23691467984781</v>
+        <v>39.19242501348641</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>29.23691469750162</v>
+        <v>55.60779044081157</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>29.2369147016536</v>
+        <v>59.78586239378608</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>29.23691464499295</v>
+        <v>17.5539885773543</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>29.23691468757158</v>
+        <v>38.4503317676636</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>29.23691470026577</v>
+        <v>45.94253067858101</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>29.23691467482313</v>
+        <v>65.29890673567037</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>29.23691467038229</v>
+        <v>64.34099982409984</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>29.23691468887431</v>
+        <v>76.68391929992855</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>29.23691469347998</v>
+        <v>72.70078311406007</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>29.23691463459975</v>
+        <v>28.40437885007536</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>29.23691467991209</v>
+        <v>66.60415290070939</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>29.23691469227725</v>
+        <v>65.78054103449713</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>29.23691463859774</v>
+        <v>27.92111947920621</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>29.23691468014061</v>
+        <v>53.99212884783428</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>29.23691469330047</v>
+        <v>49.9430227837121</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>29.23691464125843</v>
+        <v>8.584031720171435</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>29.2369146853003</v>
+        <v>48.70689239430918</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>29.23691469936562</v>
+        <v>45.71517197059752</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>29.2369146536289</v>
+        <v>10.83267723892787</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>29.23691469846994</v>
+        <v>74.32304324295997</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>29.23691471154529</v>
+        <v>74.90057040123425</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>29.23691470645561</v>
+        <v>80.86231781079668</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>29.23691472432795</v>
+        <v>88.7518025398614</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>29.23691472847486</v>
+        <v>89.24643555539872</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>29.23691466936964</v>
+        <v>35.76556127169788</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>29.23691471437398</v>
+        <v>82.7980991917761</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>29.2369147267053</v>
+        <v>79.91884317989674</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>29.23691467905795</v>
+        <v>67.36267990693982</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>29.23691467442744</v>
+        <v>59.31507320490627</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>29.23691469271103</v>
+        <v>68.25627436574877</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>29.2369146972991</v>
+        <v>70.73151494754913</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>29.23691463862164</v>
+        <v>20.73537159459321</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>29.23691468390142</v>
+        <v>60.82940114970411</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>29.23691469611383</v>
+        <v>62.72714266522472</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>29.23691464236752</v>
+        <v>19.27423998473234</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>29.23691468382192</v>
+        <v>46.47790715556526</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>29.23691469686893</v>
+        <v>45.00255314878854</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>29.23691464563861</v>
+        <v>3.638696204214892</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>29.23691468961078</v>
+        <v>44.15585532955369</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>29.23691470360058</v>
+        <v>45.47609598112702</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>29.23691465801856</v>
+        <v>5.955629408869651</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>29.23691470276393</v>
+        <v>69.4667459965499</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>29.23691471572455</v>
+        <v>74.76127081406592</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>29.23691471046088</v>
+        <v>77.30889806982141</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>29.23691472813888</v>
+        <v>84.02191572565964</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>29.23691473226041</v>
+        <v>89.4553557701545</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>29.23691467333325</v>
+        <v>24.53967365433872</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>29.23691471832747</v>
+        <v>76.62739905606001</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>29.23691473049085</v>
+        <v>76.5534331209213</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>29.23691466236692</v>
+        <v>64.04953621689016</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>29.23691465780475</v>
+        <v>46.51757959402393</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>29.23691467605545</v>
+        <v>56.81555430344284</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>29.23691468072446</v>
+        <v>59.9365684623772</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>29.23691462329742</v>
+        <v>20.21640475991131</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>29.23691466736093</v>
+        <v>59.50247461391861</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>29.23691468001905</v>
+        <v>62.27795257125793</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>29.23691462853904</v>
+        <v>17.50543152233021</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>29.23691466874062</v>
+        <v>48.30341922868986</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>29.23691468215037</v>
+        <v>50.40562539161984</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>29.23691463078163</v>
+        <v>8.333308615053578</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>29.23691467326578</v>
+        <v>46.29289708833868</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>29.23691468764684</v>
+        <v>52.3295960483308</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>29.23691464245935</v>
+        <v>7.684253005984043</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>29.23691468585419</v>
+        <v>67.61408506162611</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>29.23691469917826</v>
+        <v>78.64970707732009</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>29.2369146940233</v>
+        <v>68.90665585359334</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>29.23691471165538</v>
+        <v>80.56035232984574</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>29.23691471586399</v>
+        <v>91.06893490102733</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>29.23691465803955</v>
+        <v>23.62126289631074</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>29.23691470189026</v>
+        <v>78.47869669846078</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>29.23691471451859</v>
+        <v>83.67035588402682</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>29.23691452919851</v>
+        <v>12.94359991765068</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>29.23691456344126</v>
+        <v>15.9914714424918</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>29.23691457534428</v>
+        <v>24.401207102456</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>29.23691452935778</v>
+        <v>-1.092222681704957</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>29.2369145664361</v>
+        <v>10.3760235008996</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>29.23691457837763</v>
+        <v>12.46825875693061</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>29.23691453463398</v>
+        <v>4.90063523219828</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>29.23691457201361</v>
+        <v>26.58179434474856</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>29.23691458357799</v>
+        <v>30.55632906343719</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>29.23691458387191</v>
+        <v>12.44583838984749</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>29.23691459843419</v>
+        <v>16.45743221742427</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>29.23691460259365</v>
+        <v>18.35949053148833</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>29.23691455500324</v>
+        <v>12.12231249408135</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>29.23691459177506</v>
+        <v>14.73052928441744</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>29.23691460312279</v>
+        <v>26.59464887180105</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>29.23691457713705</v>
+        <v>9.867693604935081</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>29.2369146161555</v>
+        <v>17.90125147090778</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>29.23691462985355</v>
+        <v>18.5701023957357</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>29.23691457530228</v>
+        <v>-2.441529500407913</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>29.2369146162871</v>
+        <v>3.286722447087566</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>29.23691463087449</v>
+        <v>5.300763611827644</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>29.23691458511659</v>
+        <v>-1.664425648521036</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>29.23691462724122</v>
+        <v>14.82497410688758</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>29.23691454520392</v>
+        <v>14.58245905586509</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>29.23691458138471</v>
+        <v>22.95136486210449</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>29.23691459318701</v>
+        <v>25.34320495713886</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>29.23691454736023</v>
+        <v>-0.856256412068408</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>29.23691458667694</v>
+        <v>23.22207171618622</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>29.23691459857774</v>
+        <v>23.16774070055305</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>29.23691455348499</v>
+        <v>3.7209163679174</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>29.23691459296051</v>
+        <v>38.19494888806904</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>29.2369146044129</v>
+        <v>36.64624605880581</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>29.23691460468</v>
+        <v>36.79430422977087</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>29.23691461949776</v>
+        <v>41.43205085779435</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>29.23691462369529</v>
+        <v>41.60908945367824</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>29.23691457363913</v>
+        <v>16.5642795851801</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>29.23691461256027</v>
+        <v>39.04737166962397</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>29.23691462360114</v>
+        <v>42.92304686582199</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>29.23691459759263</v>
+        <v>11.88993914666341</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>29.23691463884803</v>
+        <v>24.28425851628401</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>29.23691465248188</v>
+        <v>24.97064471864486</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>29.23691459798971</v>
+        <v>-2.00141417029668</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>29.23691464153216</v>
+        <v>16.50245863341703</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>29.2369146561651</v>
+        <v>20.78051795543743</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>29.2369146089159</v>
+        <v>0.829854094238609</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>29.23691465346283</v>
+        <v>34.03265710984782</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>29.23691454901909</v>
+        <v>7.834108462139081</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>29.23691458510567</v>
+        <v>16.78313270347185</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>29.23691459680756</v>
+        <v>20.37203004378764</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>29.23691455174904</v>
+        <v>-2.982557702991944</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>29.23691459098286</v>
+        <v>20.0226985754707</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>29.2369146028162</v>
+        <v>23.15616026034627</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>29.23691455790711</v>
+        <v>2.553567995092376</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>29.23691459727737</v>
+        <v>35.97976113552747</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>29.23691460863105</v>
+        <v>37.30244007045918</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>29.23691460880571</v>
+        <v>38.78029619248922</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>29.23691462347932</v>
+        <v>41.445722958951</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>29.23691462765686</v>
+        <v>44.67588545457231</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>29.23691457766548</v>
+        <v>5.332403491476509</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>29.23691461659293</v>
+        <v>29.95312267126723</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>29.23691462748565</v>
+        <v>34.24011614901826</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>29.2369146015048</v>
+        <v>7.061412264968961</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>29.23691464264414</v>
+        <v>17.93329346047275</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>29.23691465618493</v>
+        <v>23.03520310212592</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>29.23691460251338</v>
+        <v>-4.020730418871313</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>29.23691464595624</v>
+        <v>12.0597139095986</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>29.23691466053964</v>
+        <v>22.09405899347282</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>29.23691461346505</v>
+        <v>-0.09825801726363537</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>29.23691465789013</v>
+        <v>29.66321093706267</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>29.23691453789201</v>
+        <v>1.589674899131733</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>29.2369145728811</v>
+        <v>12.80145951324374</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>29.2369145848699</v>
+        <v>20.64332937288877</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>29.23691453977236</v>
+        <v>-2.833432606512321</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>29.23691457771606</v>
+        <v>18.30167378067788</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>29.23691458986496</v>
+        <v>26.08988933833713</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>29.23691454534359</v>
+        <v>-0.8152646160242689</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>29.23691458353671</v>
+        <v>32.03372318813351</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>29.236914595186</v>
+        <v>38.18315560492083</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>29.2369145951557</v>
+        <v>31.49895804598063</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>29.23691460976201</v>
+        <v>36.18823980785044</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>29.23691461399207</v>
+        <v>40.48460616118597</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>29.23691456518319</v>
+        <v>3.340698731950067</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>29.23691460308973</v>
+        <v>25.30377422188465</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>29.23691461436632</v>
+        <v>35.29606532183659</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>29.23691458751937</v>
+        <v>2.696230603616339</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>29.23691462736886</v>
+        <v>16.27078838374802</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>29.23691464124878</v>
+        <v>22.49845114275584</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>29.23691458749798</v>
+        <v>-3.470331217842745</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>29.23691462942697</v>
+        <v>10.39186934060022</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>29.23691464437123</v>
+        <v>22.20671644397931</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>29.23691459770745</v>
+        <v>-1.719276531190932</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>29.23691464074724</v>
+        <v>24.41031832937906</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>29.23691464086656</v>
+        <v>16.30388571765024</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>29.23691463773226</v>
+        <v>11.885131836511</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>29.23691465602364</v>
+        <v>22.58184050752024</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>29.23691466069391</v>
+        <v>21.68286206809291</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>29.23691460437945</v>
+        <v>2.202065104818328</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>29.23691464737523</v>
+        <v>9.958150439005191</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>29.2369146602736</v>
+        <v>15.20826739855795</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>29.2369146104426</v>
+        <v>18.03554655862234</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>29.23691464980991</v>
+        <v>22.85403975564641</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>29.23691466330302</v>
+        <v>30.32811624031059</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>29.23691461080014</v>
+        <v>-2.113354077025921</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>29.23691465232531</v>
+        <v>5.730558526637633</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>29.23691466660763</v>
+        <v>10.0059202670525</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>29.23691462184112</v>
+        <v>2.747984090397249</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>29.23691466433169</v>
+        <v>23.79898291138074</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>29.23691467771947</v>
+        <v>35.62821046273881</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>29.2369146739559</v>
+        <v>23.26228483072502</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>29.23691469159736</v>
+        <v>33.33028491212472</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>29.23691469581339</v>
+        <v>36.37154757423507</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>29.23691463915868</v>
+        <v>6.869352450596136</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>29.23691468190932</v>
+        <v>16.81744315814698</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>29.23691469473965</v>
+        <v>28.14193859180007</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>29.23691466702287</v>
+        <v>38.79652636257475</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>29.23691466328019</v>
+        <v>35.92220035259548</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>29.23691468177513</v>
+        <v>43.09439057032625</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>29.23691468647316</v>
+        <v>41.50622354767198</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>29.23691462762799</v>
+        <v>11.11399425490491</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>29.23691467309981</v>
+        <v>39.92825722054694</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>29.23691468568931</v>
+        <v>41.92474151540917</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>29.23691463211286</v>
+        <v>22.65338825995826</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>29.23691467375084</v>
+        <v>37.73760774062936</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>29.2369146871148</v>
+        <v>38.78359609397967</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>29.23691463476371</v>
+        <v>4.0278700313341</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>29.23691467889232</v>
+        <v>32.50927895743571</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>29.23691469314584</v>
+        <v>33.41644168021149</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>29.2369146469483</v>
+        <v>9.477274779770521</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>29.23691469189949</v>
+        <v>55.13698338016768</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>29.23691470514896</v>
+        <v>58.65633658722631</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>29.23691470074449</v>
+        <v>66.55349475431025</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>29.23691471860304</v>
+        <v>69.28630408176907</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>29.23691472281784</v>
+        <v>69.01858785817807</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>29.23691466369647</v>
+        <v>29.22567036753007</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>29.23691470888621</v>
+        <v>64.23064586183598</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>29.23691472135887</v>
+        <v>67.15402463021034</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>29.23691467135806</v>
+        <v>42.40665129008357</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>29.23691466741904</v>
+        <v>30.97308488151122</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>29.23691468570754</v>
+        <v>35.54467951362619</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>29.23691469038885</v>
+        <v>40.89987834898881</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>29.23691463173799</v>
+        <v>4.499114282555862</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>29.23691467718114</v>
+        <v>35.24933647406628</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>29.23691468961825</v>
+        <v>40.93747899178996</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>29.23691463597802</v>
+        <v>16.24584121299116</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>29.2369146775276</v>
+        <v>32.48547956263799</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>29.23691469077833</v>
+        <v>36.68484450823638</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>29.23691463924299</v>
+        <v>1.301634366382071</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>29.23691468330186</v>
+        <v>30.22221055544294</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>29.23691469748052</v>
+        <v>35.91487341158445</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>29.23691465144487</v>
+        <v>7.17781467301894</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>29.23691469630101</v>
+        <v>52.85885457839366</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>29.23691470943574</v>
+        <v>61.77628842829334</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>29.23691470485081</v>
+        <v>64.76092798666021</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>29.23691472251665</v>
+        <v>67.1821140434278</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>29.23691472670684</v>
+        <v>72.26334201809932</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>29.23691466775374</v>
+        <v>20.23478141243531</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>29.23691471293845</v>
+        <v>60.84954033573392</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>29.23691472524326</v>
+        <v>67.46211634701832</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>29.23691465455471</v>
+        <v>38.56305569543447</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>29.23691465064587</v>
+        <v>18.14915418525178</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>29.23691466890595</v>
+        <v>22.99469389038392</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>29.2369146736701</v>
+        <v>28.88045036351724</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>29.23691461627493</v>
+        <v>2.00219642872278</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>29.23691466050264</v>
+        <v>32.01164541310466</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>29.23691467338103</v>
+        <v>39.21870330764561</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>29.23691462205855</v>
+        <v>11.75212784278756</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>29.23691466235137</v>
+        <v>31.32652413106616</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>29.23691467596343</v>
+        <v>39.1763938231737</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>29.23691462427536</v>
+        <v>1.802800397666697</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>29.23691466684834</v>
+        <v>27.48209895734957</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>29.23691468141089</v>
+        <v>38.16201854817955</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>29.23691463576054</v>
+        <v>4.521873749661051</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>29.23691467926137</v>
+        <v>46.3085465451817</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>29.236914692759</v>
+        <v>61.42600041427436</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>29.23691468824584</v>
+        <v>51.3966275582036</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>29.23691470587205</v>
+        <v>58.06177508994985</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>29.23691471014981</v>
+        <v>68.33187789896799</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>29.23691465229974</v>
+        <v>12.20893175397826</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>29.23691469634717</v>
+        <v>56.25386649488958</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>29.23691470911366</v>
+        <v>68.05056871825472</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>29.23691452730784</v>
+        <v>12.28386999869055</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>29.23691456440808</v>
+        <v>16.56371724606108</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>29.23691457771367</v>
+        <v>27.82839687720648</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>29.23691452813897</v>
+        <v>1.308337293026096</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>29.23691456830611</v>
+        <v>19.61170712130513</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>29.23691458162702</v>
+        <v>19.45963239381923</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>29.23691453397212</v>
+        <v>8.021614499720226</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>29.23691457455749</v>
+        <v>37.13205430707453</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>29.23691458753129</v>
+        <v>42.36962982793143</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>29.23691458682239</v>
+        <v>19.23025756157467</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>29.2369146031575</v>
+        <v>25.87459441330811</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>29.2369146077664</v>
+        <v>30.09946344268922</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>29.23691455568992</v>
+        <v>16.33140980508537</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>29.2369145951463</v>
+        <v>17.59061751005498</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>29.23691460766305</v>
+        <v>31.62717409879924</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>29.23691458698859</v>
+        <v>12.11632556989911</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>29.23691462933521</v>
+        <v>28.01621873308643</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>29.23691464478547</v>
+        <v>36.84670643140802</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>29.23691458624981</v>
+        <v>-1.716000754478376</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>29.23691463068779</v>
+        <v>12.1596312628809</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>29.23691464707045</v>
+        <v>17.96848952187331</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>29.23691459703969</v>
+        <v>-2.457416686467614</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>29.23691464282873</v>
+        <v>25.57580543339089</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>29.23691454595409</v>
+        <v>15.06439476008257</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>29.23691458517867</v>
+        <v>28.17976453352034</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>29.23691459840403</v>
+        <v>33.15771744983675</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>29.23691454898466</v>
+        <v>1.653451255005958</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>29.2369145915891</v>
+        <v>36.64398670063171</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>29.23691460489909</v>
+        <v>36.50321755127682</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>29.23691455585428</v>
+        <v>5.375403950227518</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>29.23691459874073</v>
+        <v>52.86959727744571</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>29.23691461162214</v>
+        <v>52.66288582544236</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>29.23691461087091</v>
+        <v>51.32908761869062</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>29.23691462749418</v>
+        <v>59.07277183802154</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>29.2369146321411</v>
+        <v>60.26079859683247</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>29.23691457729094</v>
+        <v>21.83120084178615</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>29.23691461907832</v>
+        <v>49.62949362037472</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>29.23691463128309</v>
+        <v>54.9195981366325</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>29.23691461059003</v>
+        <v>19.75875366100692</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>29.23691465537301</v>
+        <v>42.61067955411963</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>29.23691467078848</v>
+        <v>50.99695411669666</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>29.2369146123016</v>
+        <v>5.700614421142927</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>29.23691465950695</v>
+        <v>34.46959222695251</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>29.23691467597943</v>
+        <v>45.63983105520569</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>29.23691462442387</v>
+        <v>6.883105244728863</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>29.23691467285572</v>
+        <v>56.92782018507089</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>29.23691455028741</v>
+        <v>6.30299673833316</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>29.23691458942833</v>
+        <v>21.52351726090204</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>29.2369146025439</v>
+        <v>27.88884899360438</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>29.23691455394908</v>
+        <v>-2.207735391910663</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>29.23691459648016</v>
+        <v>32.9377692165213</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>29.23691460971689</v>
+        <v>36.69083126758962</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>29.23691456087418</v>
+        <v>2.018402968562686</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>29.23691460366458</v>
+        <v>50.41302130529135</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>29.23691461643817</v>
+        <v>53.34919239923411</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>29.23691461557406</v>
+        <v>52.92520870775823</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>29.23691463203927</v>
+        <v>57.70874987446771</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>29.23691463666441</v>
+        <v>61.59822137467607</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>29.23691458186439</v>
+        <v>8.083342184468616</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>29.23691462367488</v>
+        <v>39.13512116010939</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>29.23691463572142</v>
+        <v>46.52384975400332</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>29.23691461493271</v>
+        <v>11.94261356973372</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>29.23691465960662</v>
+        <v>34.43554485090813</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>29.23691467491605</v>
+        <v>46.98465846612248</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>29.23691461730995</v>
+        <v>0.9845343232824568</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>29.23691466442272</v>
+        <v>28.18421696695439</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>29.23691468083644</v>
+        <v>45.79436413007539</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>29.23691462947841</v>
+        <v>2.795235376545801</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>29.23691467779512</v>
+        <v>51.13563231008446</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>29.23691453744705</v>
+        <v>0.475348352988707</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>29.23691457540251</v>
+        <v>17.59889915569621</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>29.23691458881456</v>
+        <v>28.04930511389589</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>29.2369145401846</v>
+        <v>-0.6768649549513022</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>29.2369145813295</v>
+        <v>32.42221736427784</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>29.23691459489249</v>
+        <v>38.6104392548209</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>29.23691454639863</v>
+        <v>1.199310940418552</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>29.23691458791296</v>
+        <v>48.16592579796092</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>29.23691460099566</v>
+        <v>55.55719711291236</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>29.23691459986311</v>
+        <v>43.22753613271237</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>29.23691461626399</v>
+        <v>49.46713800611147</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>29.23691462095911</v>
+        <v>53.88929330945638</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>29.23691456748164</v>
+        <v>7.372763308551296</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>29.23691460820221</v>
+        <v>31.12573684031321</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>29.23691462066452</v>
+        <v>45.93895846709071</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>29.23691459894731</v>
+        <v>6.287800999717174</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>29.23691464223847</v>
+        <v>32.3524861137526</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>29.23691465789611</v>
+        <v>45.81267945131482</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>29.23691460021093</v>
+        <v>-0.5963469359904998</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>29.23691464571086</v>
+        <v>25.72376101310519</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>29.23691466249295</v>
+        <v>42.66659579010958</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>29.23691461148635</v>
+        <v>-0.5453470750872533</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>29.23691465831308</v>
+        <v>44.44775239244238</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>29.23691465823883</v>
+        <v>37.46454356777124</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>29.23691465335604</v>
+        <v>24.89701235268619</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>29.23691467406518</v>
+        <v>47.38423167856473</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>29.23691467935747</v>
+        <v>56.60815584472121</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>29.23691461743135</v>
+        <v>3.33390158483277</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>29.23691466387345</v>
+        <v>28.10251893054474</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>29.23691467809688</v>
+        <v>36.82551473722681</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>29.23691462263757</v>
+        <v>15.6296439797115</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>29.23691466545063</v>
+        <v>26.60335384316734</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>29.23691468057267</v>
+        <v>38.74221295127199</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>29.23691462404288</v>
+        <v>-1.903360152481259</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>29.23691466916502</v>
+        <v>11.35362013676361</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>29.23691468511989</v>
+        <v>16.75295842272554</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>29.2369146360184</v>
+        <v>-0.8931511666947394</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>29.23691468228925</v>
+        <v>29.8608581537221</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>29.23691469732807</v>
+        <v>47.11314837134601</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>29.23691469147066</v>
+        <v>32.13637815504553</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>29.23691471145411</v>
+        <v>55.01338123133839</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>29.23691471620701</v>
+        <v>60.25264359892604</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>29.23691465407702</v>
+        <v>4.279785695482001</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>29.23691470021284</v>
+        <v>30.14002289284086</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>29.23691471435756</v>
+        <v>40.85862752301908</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>29.23691468823274</v>
+        <v>72.59684607685041</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>29.2369146826337</v>
+        <v>62.99710148729115</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>29.23691470356695</v>
+        <v>77.67631396520214</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>29.23691470889453</v>
+        <v>87.99925714484313</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>29.23691464418915</v>
+        <v>23.96647342682295</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>29.23691469329647</v>
+        <v>77.0086156474042</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>29.23691470721055</v>
+        <v>82.12243192802525</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>29.23691464756268</v>
+        <v>22.8213206744612</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>29.2369146928583</v>
+        <v>47.54675196712846</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>29.2369147078761</v>
+        <v>53.72186310418381</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>29.23691465148222</v>
+        <v>6.958397314612323</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>29.23691469943431</v>
+        <v>44.25753269045411</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>29.23691471540267</v>
+        <v>50.10979033911134</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>29.23691466480771</v>
+        <v>9.405932946235122</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>29.23691471377296</v>
+        <v>71.27742197644442</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>29.23691472870036</v>
+        <v>81.21995656185742</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>29.23691472204839</v>
+        <v>86.06809366973535</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>29.23691474227009</v>
+        <v>98.00661448414873</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>29.23691474702488</v>
+        <v>100.7081837970043</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>29.2369146821969</v>
+        <v>33.068696279631</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>29.23691473096437</v>
+        <v>93.05044480825823</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>29.23691474475552</v>
+        <v>95.27687384509464</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>29.23691469306729</v>
+        <v>74.8170404127553</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>29.23691468724227</v>
+        <v>54.97052638913243</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>29.23691470794205</v>
+        <v>65.69074037783781</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>29.23691471325211</v>
+        <v>83.32365734359436</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>29.23691464875702</v>
+        <v>14.13073201649058</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>29.23691469784412</v>
+        <v>69.97346089092416</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>29.23691471159281</v>
+        <v>80.25412779030692</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>29.23691465185757</v>
+        <v>13.43031837989811</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>29.23691469707279</v>
+        <v>40.6559175235892</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>29.23691471196559</v>
+        <v>50.05338450662376</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>29.23691465645093</v>
+        <v>1.669511508689194</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>29.23691470434197</v>
+        <v>40.5032135525163</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>29.23691472022801</v>
+        <v>52.11708622809236</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>29.23691466981109</v>
+        <v>3.84458960864276</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>29.23691471868862</v>
+        <v>67.67080263361059</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>29.23691473348986</v>
+        <v>83.36197248518998</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>29.2369147266265</v>
+        <v>81.65296710166156</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>29.23691474662984</v>
+        <v>92.54119741411021</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>29.23691475135779</v>
+        <v>100.5713805441141</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>29.23691468671186</v>
+        <v>20.01086836420374</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>29.23691473548148</v>
+        <v>86.59940702787212</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>29.23691474909509</v>
+        <v>94.43312281442168</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>29.23691467393376</v>
+        <v>68.72898517607715</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>29.23691466812001</v>
+        <v>37.14640832926467</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>29.236914688797</v>
+        <v>51.34861246775735</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>29.23691469420659</v>
+        <v>67.88241997011239</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>29.23691463108176</v>
+        <v>9.410060556488357</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>29.23691467888641</v>
+        <v>60.85268275661996</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>29.23691469310669</v>
+        <v>73.31944507497442</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>29.23691463592519</v>
+        <v>12.25716389787861</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>29.23691467978195</v>
+        <v>42.80068555101015</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>29.23691469504887</v>
+        <v>55.85941014952168</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>29.23691463939121</v>
+        <v>5.238854395560178</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>29.23691468568505</v>
+        <v>40.85734309991268</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>29.23691470196548</v>
+        <v>55.44556454398948</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>29.23691465189752</v>
+        <v>3.697957148419885</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>29.23691469930585</v>
+        <v>62.54579207540426</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>29.236914714483</v>
+        <v>84.37436211540695</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>29.23691470770567</v>
+        <v>69.41283525526127</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>29.23691472767345</v>
+        <v>86.83983051216161</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>29.23691473250384</v>
+        <v>100.4970896440645</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>29.23691466905744</v>
+        <v>15.81403601254074</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>29.23691471661086</v>
+        <v>80.06299364452029</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>29.23691473071782</v>
+        <v>94.45452967939563</v>
       </c>
     </row>
   </sheetData>
